--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,125 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
       </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -781,19 +794,19 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -802,57 +815,69 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>400</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,19 +893,21 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
         <v>1500</v>
       </c>
       <c r="F12" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G12" s="3">
         <v>1500</v>
@@ -889,28 +916,34 @@
         <v>1200</v>
       </c>
       <c r="I12" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="J12" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="K12" s="3">
         <v>1300</v>
       </c>
       <c r="L12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,49 +1030,61 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>100</v>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1097,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,81 +1108,93 @@
         <v>3700</v>
       </c>
       <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-3100</v>
       </c>
       <c r="G18" s="3">
         <v>-3400</v>
       </c>
       <c r="H18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,22 +1210,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1169,66 +1236,78 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,8 +1347,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1277,45 +1362,51 @@
         <v>-3200</v>
       </c>
       <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1323,11 +1414,11 @@
       <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1335,11 +1426,11 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,49 +1488,61 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1441,40 +1550,46 @@
         <v>-3200</v>
       </c>
       <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,22 +1770,28 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1661,25 +1800,31 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1687,40 +1832,46 @@
         <v>-3200</v>
       </c>
       <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1911,14 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1769,86 +1926,98 @@
         <v>-3200</v>
       </c>
       <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,38 +2052,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2095,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,22 +2142,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -1987,13 +2172,13 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2004,8 +2189,14 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,37 +2236,43 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
+        <v>200</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2086,38 +2283,44 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F46" s="3">
         <v>4700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2330,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,22 +2377,28 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2194,11 +2409,11 @@
       <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2209,38 +2424,44 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,23 +2565,29 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -2358,11 +2597,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F54" s="3">
         <v>8200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2706,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,13 +2748,15 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -2504,23 +2765,23 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,37 +2791,43 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2571,8 +2838,14 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2580,29 +2853,29 @@
         <v>2600</v>
       </c>
       <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,38 +2885,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,20 +2932,26 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2694,23 +2979,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2720,11 +3011,11 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,38 +3167,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3214,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,38 +3421,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-83500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-80300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-77200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-74100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-70900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-68700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-66800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3468,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,38 +3609,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3656,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3703,66 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3381,40 +3770,46 @@
         <v>-3200</v>
       </c>
       <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,19 +3825,21 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3451,7 +3848,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3463,16 +3860,22 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,23 +4173,25 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3760,11 +4201,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>2400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>6800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4147,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4156,50 +4653,62 @@
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
       </c>
       <c r="F8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
@@ -756,34 +760,37 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,25 +798,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -821,63 +828,69 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
         <v>1500</v>
       </c>
       <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,19 +1056,22 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
         <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1056,11 +1079,11 @@
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1068,23 +1091,26 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2600</v>
       </c>
       <c r="K17" s="3">
         <v>2600</v>
       </c>
       <c r="L17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3000</v>
       </c>
       <c r="H21" s="3">
         <v>-3000</v>
       </c>
       <c r="I21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-3200</v>
       </c>
       <c r="G23" s="3">
         <v>-3200</v>
       </c>
       <c r="H23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,17 +1458,17 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1432,8 +1478,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3200</v>
       </c>
       <c r="H26" s="3">
         <v>-3200</v>
       </c>
       <c r="I26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
       </c>
       <c r="H27" s="3">
         <v>-3100</v>
       </c>
       <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3100</v>
       </c>
       <c r="H33" s="3">
         <v>-3100</v>
       </c>
       <c r="I33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3100</v>
       </c>
       <c r="H35" s="3">
         <v>-3100</v>
       </c>
       <c r="I35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,19 +2238,22 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2169,19 +2262,19 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,31 +2338,34 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2274,8 +2373,8 @@
       <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>200</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,32 +2400,32 @@
         <v>2100</v>
       </c>
       <c r="E46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,25 +2488,28 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2415,8 +2523,8 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>100</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2430,41 +2538,44 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,13 +2703,13 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2603,8 +2723,8 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,40 +2880,41 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>100</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
@@ -2797,17 +2928,20 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2823,14 +2957,14 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2891,41 +3028,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,23 +3078,26 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2996,15 +3142,15 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3163,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-89400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-74100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-66800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3100</v>
       </c>
       <c r="H81" s="3">
         <v>-3100</v>
       </c>
       <c r="I81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4035,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3845,13 +4044,13 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -3866,16 +4065,19 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2400</v>
       </c>
       <c r="F89" s="3">
         <v>-2400</v>
       </c>
       <c r="G89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,17 +4405,17 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4207,8 +4428,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,32 +4555,32 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>2400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4360,11 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>4800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4650,65 +4899,71 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,13 +752,13 @@
         <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -763,63 +767,66 @@
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -831,16 +838,19 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,49 +858,52 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>400</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1500</v>
       </c>
       <c r="F12" s="3">
         <v>1500</v>
       </c>
       <c r="G12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,11 +1093,11 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>100</v>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1082,11 +1105,11 @@
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1094,23 +1117,26 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2600</v>
       </c>
       <c r="L17" s="3">
         <v>2600</v>
       </c>
       <c r="M17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,99 +1289,105 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-3000</v>
       </c>
       <c r="I21" s="3">
         <v>-3000</v>
       </c>
       <c r="J21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,63 +1436,69 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3200</v>
       </c>
       <c r="H23" s="3">
         <v>-3200</v>
       </c>
       <c r="I23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1461,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1481,8 +1527,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-3200</v>
       </c>
       <c r="I26" s="3">
         <v>-3200</v>
       </c>
       <c r="J26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-3100</v>
       </c>
       <c r="I27" s="3">
         <v>-3100</v>
       </c>
       <c r="J27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,99 +1925,105 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-3100</v>
       </c>
       <c r="I33" s="3">
         <v>-3100</v>
       </c>
       <c r="J33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-3100</v>
       </c>
       <c r="I35" s="3">
         <v>-3100</v>
       </c>
       <c r="J35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2227,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2250,13 +2343,13 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2265,19 +2358,19 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,34 +2437,37 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
       </c>
       <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2376,8 +2475,8 @@
       <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>200</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2391,44 +2490,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="3">
         <v>2100</v>
       </c>
       <c r="F46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,28 +2596,31 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2526,8 +2634,8 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2541,44 +2649,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2706,13 +2826,13 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2726,8 +2846,8 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2914,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,34 +3021,34 @@
         <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
+      <c r="N57" s="3">
+        <v>100</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,11 +3074,11 @@
         <v>2300</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,14 +3094,14 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2981,44 +3115,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,44 +3168,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,26 +3221,29 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,15 +3291,15 @@
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3166,8 +3312,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3486,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3772,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-86200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-80300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-66800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3984,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-3100</v>
       </c>
       <c r="I81" s="3">
         <v>-3100</v>
       </c>
       <c r="J81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4038,7 +4237,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -4047,14 +4246,14 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
@@ -4068,16 +4267,19 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2400</v>
       </c>
       <c r="G89" s="3">
         <v>-2400</v>
       </c>
       <c r="H89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4408,17 +4629,17 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4431,8 +4652,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4558,32 +4788,32 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>100</v>
-      </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>2400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4593,11 +4823,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4902,68 +5151,74 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>500</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -820,19 +833,19 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -841,69 +854,81 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>500</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,31 +948,33 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1500</v>
-      </c>
       <c r="H12" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="3">
         <v>1500</v>
       </c>
       <c r="J12" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K12" s="3">
         <v>1500</v>
@@ -956,28 +983,34 @@
         <v>1200</v>
       </c>
       <c r="M12" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="N12" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="O12" s="3">
         <v>1300</v>
       </c>
       <c r="P12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,31 +1062,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1082,13 +1121,19 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1096,47 +1141,53 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
         <v>3000</v>
       </c>
       <c r="F17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3800</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3100</v>
       </c>
       <c r="K18" s="3">
         <v>-3400</v>
       </c>
       <c r="L18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,35 +1345,37 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1316,78 +1383,90 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-3000</v>
       </c>
       <c r="G21" s="3">
         <v>-2500</v>
       </c>
       <c r="H21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
-        <v>-2700</v>
-      </c>
       <c r="F23" s="3">
-        <v>-3200</v>
+        <v>-2600</v>
       </c>
       <c r="G23" s="3">
         <v>-2700</v>
       </c>
       <c r="H23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1501,16 +1592,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1518,11 +1609,11 @@
       <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1530,11 +1621,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1545,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-3200</v>
       </c>
       <c r="G26" s="3">
         <v>-2700</v>
       </c>
       <c r="H26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-3200</v>
       </c>
       <c r="G27" s="3">
         <v>-2700</v>
       </c>
       <c r="H27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,31 +1872,37 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,34 +2049,40 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1952,36 +2091,42 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-3200</v>
       </c>
       <c r="G33" s="3">
         <v>-2700</v>
@@ -1990,40 +2135,46 @@
         <v>-3200</v>
       </c>
       <c r="I33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,19 +2226,25 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-3200</v>
       </c>
       <c r="G35" s="3">
         <v>-2700</v>
@@ -2096,98 +2253,110 @@
         <v>-3200</v>
       </c>
       <c r="I35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,50 +2399,52 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,8 +2454,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,34 +2513,40 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2370,13 +2555,13 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2387,8 +2572,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,49 +2631,55 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>200</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2493,50 +2690,56 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>11700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2749,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,35 +2808,41 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
-      </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
@@ -2637,11 +2852,11 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
+        <v>100</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2652,50 +2867,56 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,8 +2926,14 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2829,17 +3068,17 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -2849,11 +3088,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3103,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,50 +3162,56 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3221,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,25 +3271,27 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -3039,22 +3300,22 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3065,26 +3326,32 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,17 +3364,17 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
@@ -3118,50 +3385,56 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2900</v>
       </c>
       <c r="H59" s="3">
         <v>2600</v>
       </c>
       <c r="I59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,50 +3444,56 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,32 +3503,38 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3277,16 +3562,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -3294,18 +3585,18 @@
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,11 +3606,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3330,8 +3621,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,50 +3798,56 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3857,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,50 +4116,56 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-94600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-92100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-89400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-86200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-83500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-80300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-77200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-74100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-70900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-68700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-66800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4175,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,50 +4352,56 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>8000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4411,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,77 +4470,89 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-3200</v>
       </c>
       <c r="G81" s="3">
         <v>-2700</v>
@@ -4172,40 +4561,46 @@
         <v>-3200</v>
       </c>
       <c r="I81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,31 +4620,33 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4258,7 +4655,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4270,16 +4667,22 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,13 +5056,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4632,20 +5073,20 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -4655,11 +5096,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4670,8 +5111,14 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,13 +5229,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4791,46 +5250,52 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>2400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>6800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5154,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5163,62 +5660,74 @@
         <v>100</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5000</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -783,34 +787,37 @@
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,34 +828,34 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -860,75 +867,81 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>400</v>
       </c>
       <c r="G10" s="3">
         <v>400</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
       </c>
       <c r="K10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
       </c>
       <c r="T10" s="3">
+        <v>300</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>900</v>
+      </c>
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="Q12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,34 +1085,37 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1147,11 +1170,11 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1159,11 +1182,11 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1171,23 +1194,26 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="3">
-        <v>100</v>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,117 +1242,123 @@
         <v>2200</v>
       </c>
       <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
-        <v>3000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2600</v>
       </c>
       <c r="O17" s="3">
         <v>2600</v>
       </c>
       <c r="P17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,19 +1380,20 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1371,102 +1405,108 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-3000</v>
       </c>
       <c r="L21" s="3">
         <v>-3000</v>
       </c>
       <c r="M21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,81 +1564,87 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2600</v>
       </c>
       <c r="F23" s="3">
         <v>-2600</v>
       </c>
       <c r="G23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-3200</v>
       </c>
       <c r="K23" s="3">
         <v>-3200</v>
       </c>
       <c r="L23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1607,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1627,8 +1673,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-3200</v>
       </c>
       <c r="L26" s="3">
         <v>-3200</v>
       </c>
       <c r="M26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-3100</v>
       </c>
       <c r="L27" s="3">
         <v>-3100</v>
       </c>
       <c r="M27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,17 +1936,20 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,16 +1957,16 @@
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,20 +2122,23 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
@@ -2079,102 +2149,108 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3100</v>
       </c>
       <c r="L33" s="3">
         <v>-3100</v>
       </c>
       <c r="M33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3100</v>
       </c>
       <c r="L35" s="3">
         <v>-3100</v>
       </c>
       <c r="M35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,53 +2487,54 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2460,8 +2547,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2609,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,22 +2621,22 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2552,19 +2645,19 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>100</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,43 +2733,46 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
       <c r="L45" s="3">
+        <v>700</v>
+      </c>
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2681,8 +2780,8 @@
       <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>200</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2696,53 +2795,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2100</v>
       </c>
       <c r="H46" s="3">
         <v>2100</v>
       </c>
       <c r="I46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,37 +2919,40 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2858,8 +2966,8 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>100</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2873,53 +2981,56 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3074,13 +3194,13 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3094,8 +3214,8 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,53 +3291,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3227,8 +3353,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,52 +3403,53 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>100</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3332,29 +3463,32 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2300</v>
       </c>
       <c r="G58" s="3">
         <v>2300</v>
       </c>
       <c r="H58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,14 +3504,14 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
@@ -3391,53 +3525,56 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3450,53 +3587,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,35 +3649,38 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E61" s="3">
         <v>5300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -3591,15 +3737,15 @@
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3758,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,53 +3959,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,53 +4293,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-97100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-94600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-89400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-86200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-83500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-80300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-74100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-68700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,53 +4541,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4417,8 +4603,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3100</v>
       </c>
       <c r="L81" s="3">
         <v>-3100</v>
       </c>
       <c r="M81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4643,7 +4842,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4652,14 +4851,14 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
@@ -4673,16 +4872,19 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-2400</v>
       </c>
       <c r="J89" s="3">
         <v>-2400</v>
       </c>
       <c r="K89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,16 +5278,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5079,17 +5300,17 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5102,8 +5323,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,17 +5462,20 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5256,32 +5486,32 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>100</v>
-      </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>2400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5291,11 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>4800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5657,77 +5906,83 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>100</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5000</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3" t="s">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,101 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -763,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>400</v>
-      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
@@ -790,34 +794,37 @@
         <v>400</v>
       </c>
       <c r="N8" s="3">
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,34 +838,34 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -870,16 +877,19 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,61 +897,64 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>400</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +977,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
-        <v>700</v>
-      </c>
       <c r="H12" s="3">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,28 +1117,28 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1173,11 +1196,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1185,11 +1208,11 @@
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1197,23 +1220,26 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="3">
         <v>100</v>
       </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="T15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>200</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,70 +1259,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="3">
         <v>2200</v>
       </c>
       <c r="F17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2800</v>
-      </c>
       <c r="H17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2600</v>
       </c>
       <c r="P17" s="3">
         <v>2600</v>
       </c>
       <c r="Q17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R17" s="3">
         <v>3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,61 +1334,64 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2400</v>
       </c>
       <c r="H18" s="3">
         <v>-2400</v>
       </c>
       <c r="I18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1414,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1390,61 +1424,64 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,61 +1489,64 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-3000</v>
       </c>
       <c r="M21" s="3">
         <v>-3000</v>
       </c>
       <c r="N21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,70 +1607,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2600</v>
       </c>
       <c r="G23" s="3">
         <v>-2600</v>
       </c>
       <c r="H23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-3200</v>
       </c>
       <c r="L23" s="3">
         <v>-3200</v>
       </c>
       <c r="M23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1640,14 +1686,14 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1656,17 +1702,17 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,8 +1722,8 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-3200</v>
       </c>
       <c r="M26" s="3">
         <v>-3200</v>
       </c>
       <c r="N26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-3100</v>
       </c>
       <c r="M27" s="3">
         <v>-3100</v>
       </c>
       <c r="N27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1948,28 +2009,28 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2192,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2134,123 +2204,129 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-3100</v>
       </c>
       <c r="M33" s="3">
         <v>-3100</v>
       </c>
       <c r="N33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-3100</v>
       </c>
       <c r="M35" s="3">
         <v>-3100</v>
       </c>
       <c r="N35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2574,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2702,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2624,22 +2717,22 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2648,19 +2741,19 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,46 +2832,49 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2783,8 +2882,8 @@
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>200</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2798,56 +2897,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2100</v>
       </c>
       <c r="I46" s="3">
         <v>2100</v>
       </c>
       <c r="J46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,40 +3027,43 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2969,8 +3077,8 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>100</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2993,47 +3104,47 @@
         <v>900</v>
       </c>
       <c r="E49" s="3">
+        <v>900</v>
+      </c>
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3197,13 +3317,13 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3217,8 +3337,8 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3417,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,55 +3534,56 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>900</v>
       </c>
       <c r="H57" s="3">
         <v>900</v>
       </c>
       <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>100</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3466,32 +3597,35 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2300</v>
       </c>
       <c r="H58" s="3">
         <v>2300</v>
       </c>
       <c r="I58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,14 +3641,14 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
@@ -3528,56 +3662,59 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,56 +3727,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,38 +3792,41 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3726,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3740,15 +3886,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3761,8 +3907,8 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4117,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4467,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-101600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-97100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-94600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-92100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-86200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-83500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-80300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-77200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-74100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-70900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-68700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-66800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4727,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-3100</v>
       </c>
       <c r="M81" s="3">
         <v>-3100</v>
       </c>
       <c r="N81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4833,10 +5032,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4845,7 +5044,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4854,13 +5053,13 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4875,16 +5074,19 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-2400</v>
       </c>
       <c r="K89" s="3">
         <v>-2400</v>
       </c>
       <c r="L89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,8 +5511,8 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5303,17 +5524,17 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5326,8 +5547,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5474,11 +5704,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5489,32 +5719,32 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>2400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5524,11 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,80 +6158,86 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5000</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3" t="s">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,104 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,25 +773,25 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
@@ -797,34 +800,37 @@
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,25 +856,25 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -880,16 +886,19 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,61 +909,64 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>500</v>
-      </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>400</v>
       </c>
       <c r="L10" s="3">
         <v>400</v>
       </c>
       <c r="M10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>400</v>
       </c>
       <c r="R10" s="3">
+        <v>400</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>300</v>
       </c>
       <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
-        <v>1000</v>
-      </c>
       <c r="H12" s="3">
+        <v>900</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1120,28 +1139,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1173,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1188,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1199,11 +1221,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1211,11 +1233,11 @@
       <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1223,23 +1245,26 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="S15" s="3">
         <v>100</v>
       </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="U15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2200</v>
       </c>
       <c r="F17" s="3">
         <v>2200</v>
       </c>
       <c r="G17" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="H17" s="3">
         <v>2500</v>
       </c>
       <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2600</v>
       </c>
       <c r="Q17" s="3">
         <v>2600</v>
       </c>
       <c r="R17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S17" s="3">
         <v>3800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,64 +1363,67 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H18" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="I18" s="3">
         <v>-2400</v>
       </c>
       <c r="J18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,20 +1457,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1445,43 +1478,46 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1489,64 +1525,67 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2100</v>
-      </c>
       <c r="H21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-3000</v>
       </c>
       <c r="N21" s="3">
         <v>-3000</v>
       </c>
       <c r="O21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,78 +1649,84 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-3200</v>
       </c>
       <c r="M23" s="3">
         <v>-3200</v>
       </c>
       <c r="N23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2800</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
@@ -1689,14 +1734,14 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1705,17 +1750,17 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1725,8 +1770,8 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1740,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-3200</v>
       </c>
       <c r="N26" s="3">
         <v>-3200</v>
       </c>
       <c r="O26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2800</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-3100</v>
       </c>
       <c r="N27" s="3">
         <v>-3100</v>
       </c>
       <c r="O27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2012,28 +2072,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,20 +2273,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2225,108 +2294,114 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-3100</v>
       </c>
       <c r="N33" s="3">
         <v>-3100</v>
       </c>
       <c r="O33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-3100</v>
       </c>
       <c r="N35" s="3">
         <v>-3100</v>
       </c>
       <c r="O35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2720,22 +2812,22 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>400</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
@@ -2744,19 +2836,19 @@
         <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
@@ -2770,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,49 +2930,52 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>700</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
+        <v>700</v>
+      </c>
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2885,8 +2983,8 @@
       <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>200</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2900,59 +2998,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2100</v>
       </c>
       <c r="J46" s="3">
         <v>2100</v>
       </c>
       <c r="K46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,32 +3148,32 @@
       <c r="E48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>1000</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3080,8 +3187,8 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,47 +3217,47 @@
         <v>900</v>
       </c>
       <c r="F49" s="3">
+        <v>900</v>
+      </c>
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3320,13 +3439,13 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3340,8 +3459,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3544,49 +3674,49 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>100</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3600,35 +3730,38 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2300</v>
       </c>
       <c r="I58" s="3">
         <v>2300</v>
       </c>
       <c r="J58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3644,14 +3777,14 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
@@ -3665,59 +3798,62 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,59 +3866,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,41 +3934,44 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E61" s="3">
         <v>5800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3875,11 +4020,11 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3889,15 +4034,15 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3910,8 +4055,8 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-103600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-101600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-97100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-94600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-92100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-86200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-83500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-80300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-77200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-74100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-68700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-66800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-3100</v>
       </c>
       <c r="N81" s="3">
         <v>-3100</v>
       </c>
       <c r="O81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5035,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -5047,7 +5245,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -5056,13 +5254,13 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5077,16 +5275,19 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2400</v>
       </c>
       <c r="L89" s="3">
         <v>-2400</v>
       </c>
       <c r="M89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5514,8 +5734,8 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5527,17 +5747,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5550,8 +5770,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,23 +5921,26 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5722,32 +5951,32 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>2400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5757,11 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>4800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6161,83 +6409,89 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5000</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3" t="s">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,112 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,61 +784,67 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
       </c>
       <c r="R8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T8" s="3">
         <v>500</v>
       </c>
       <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
+        <v>500</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -868,19 +882,19 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -889,16 +903,22 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,61 +932,67 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>400</v>
+      </c>
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,46 +1017,48 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>600</v>
       </c>
       <c r="J12" s="3">
         <v>900</v>
       </c>
       <c r="K12" s="3">
+        <v>600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>900</v>
+      </c>
+      <c r="M12" s="3">
         <v>1200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
       </c>
       <c r="N12" s="3">
         <v>1500</v>
       </c>
       <c r="O12" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="P12" s="3">
         <v>1500</v>
@@ -1039,28 +1067,34 @@
         <v>1200</v>
       </c>
       <c r="R12" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="S12" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="T12" s="3">
         <v>1300</v>
       </c>
       <c r="U12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,16 +1182,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1159,14 +1199,14 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,47 +1270,53 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
+      <c r="P15" s="3">
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>3</v>
+      <c r="T15" s="3">
+        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
         <v>200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>200</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1338,84 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1423,73 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-3100</v>
       </c>
       <c r="P18" s="3">
         <v>-3400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,40 +1525,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1499,25 +1567,31 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>3300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1599,73 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,108 +1732,120 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2500</v>
       </c>
       <c r="G23" s="3">
         <v>-2000</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I23" s="3">
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="J23" s="3">
         <v>-2400</v>
       </c>
       <c r="K23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-3000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1761,11 +1853,11 @@
       <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>100</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1773,11 +1865,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1788,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2500</v>
       </c>
       <c r="G26" s="3">
         <v>-2000</v>
       </c>
       <c r="H26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2800</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2500</v>
       </c>
       <c r="G27" s="3">
         <v>-2000</v>
       </c>
       <c r="H27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2075,31 +2197,31 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,40 +2413,40 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2315,93 +2455,105 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-3300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2700</v>
       </c>
       <c r="M33" s="3">
         <v>-3200</v>
       </c>
       <c r="N33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2700</v>
       </c>
       <c r="M35" s="3">
         <v>-3200</v>
       </c>
       <c r="N35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2833,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
       </c>
       <c r="G41" s="3">
+        <v>700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>11400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>8500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2815,31 +3001,31 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2848,13 +3034,13 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
+      <c r="U43" s="3">
+        <v>100</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,64 +3125,70 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>200</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -3001,65 +3199,71 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>11700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,8 +3273,14 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3347,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3151,35 +3367,35 @@
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3190,11 +3406,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
@@ -3205,65 +3421,71 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
       </c>
       <c r="G49" s="3">
+        <v>900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>900</v>
+      </c>
+      <c r="I49" s="3">
         <v>1000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3442,17 +3682,17 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3462,11 +3702,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3791,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,31 +3936,31 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3707,23 +3969,23 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3733,41 +3995,47 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F58" s="3">
         <v>7100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3780,17 +4048,17 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
@@ -3801,65 +4069,71 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2900</v>
       </c>
       <c r="M59" s="3">
         <v>2600</v>
       </c>
       <c r="N59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,65 +4143,71 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,47 +4217,53 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F61" s="3">
         <v>6100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4005,16 +4291,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4023,32 +4315,32 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4058,11 +4350,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4587,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F66" s="3">
         <v>15000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>12400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>7900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4985,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-105700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-103600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-101600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-99200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-97100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-94600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-92100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-89400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-86200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-83500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-80300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-77200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-74100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-70900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-68700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-66800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5281,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-11800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-9900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-8300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-5100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2700</v>
       </c>
       <c r="M81" s="3">
         <v>-3200</v>
       </c>
       <c r="N81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5236,28 +5634,28 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5266,7 +5664,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5278,16 +5676,22 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5737,11 +6179,11 @@
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5750,20 +6192,20 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5773,11 +6215,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,29 +6378,35 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5954,46 +6414,52 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>2400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,84 +6776,96 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>4800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>6800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1700</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6412,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -6421,77 +6919,89 @@
         <v>100</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>5000</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,25 +794,25 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
@@ -817,34 +821,37 @@
         <v>400</v>
       </c>
       <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>300</v>
       </c>
       <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,25 +886,25 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -909,16 +916,19 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,61 +948,64 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>400</v>
       </c>
       <c r="U10" s="3">
+        <v>400</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>300</v>
       </c>
       <c r="X10" s="3">
         <v>300</v>
       </c>
       <c r="Y10" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,73 +1042,76 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,28 +1208,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1241,13 +1261,16 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1276,11 +1299,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1288,11 +1311,11 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="3">
         <v>100</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
@@ -1300,23 +1323,26 @@
       <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="V15" s="3">
         <v>100</v>
       </c>
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="X15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="3">
         <v>200</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,82 +1366,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2200</v>
       </c>
       <c r="I17" s="3">
         <v>2200</v>
       </c>
       <c r="J17" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K17" s="3">
         <v>2500</v>
       </c>
       <c r="L17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2600</v>
       </c>
       <c r="T17" s="3">
         <v>2600</v>
       </c>
       <c r="U17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V17" s="3">
         <v>3800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1423,73 +1453,76 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2400</v>
       </c>
       <c r="L18" s="3">
         <v>-2400</v>
       </c>
       <c r="M18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,29 +1559,29 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1555,43 +1589,46 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1599,73 +1636,76 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q21" s="3">
         <v>-3000</v>
       </c>
       <c r="R21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S21" s="3">
         <v>-3100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,82 +1778,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-3200</v>
       </c>
       <c r="P23" s="3">
         <v>-3200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1823,11 +1869,11 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1835,14 +1881,14 @@
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1851,17 +1897,17 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1871,8 +1917,8 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-3200</v>
       </c>
       <c r="Q26" s="3">
         <v>-3200</v>
       </c>
       <c r="R26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-3100</v>
       </c>
       <c r="Q27" s="3">
         <v>-3100</v>
       </c>
       <c r="R27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2203,28 +2264,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,29 +2483,29 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2443,117 +2513,123 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-3100</v>
       </c>
       <c r="Q33" s="3">
         <v>-3100</v>
       </c>
       <c r="R33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-3100</v>
       </c>
       <c r="Q35" s="3">
         <v>-3100</v>
       </c>
       <c r="R35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2921,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3007,22 +3100,22 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -3031,19 +3124,19 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
+      <c r="V43" s="3">
+        <v>100</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,58 +3227,61 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
@@ -3190,8 +3289,8 @@
       <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>200</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3205,68 +3304,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>2100</v>
       </c>
       <c r="M46" s="3">
         <v>2100</v>
       </c>
       <c r="N46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,25 +3458,28 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3380,25 +3488,25 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1000</v>
       </c>
       <c r="P48" s="3">
         <v>1000</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3412,8 +3520,8 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
+      <c r="V48" s="3">
+        <v>100</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3439,7 +3550,7 @@
         <v>800</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -3448,47 +3559,47 @@
         <v>900</v>
       </c>
       <c r="I49" s="3">
+        <v>900</v>
+      </c>
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3688,13 +3808,13 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3708,8 +3828,8 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>3</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3920,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,67 +4057,68 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
+      <c r="V57" s="3">
+        <v>100</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
@@ -4001,44 +4132,47 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2300</v>
       </c>
       <c r="L58" s="3">
         <v>2300</v>
       </c>
       <c r="M58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4054,14 +4188,14 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
@@ -4075,68 +4209,71 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4149,68 +4286,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4223,50 +4363,53 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E61" s="3">
         <v>6800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4308,8 +4454,8 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4321,11 +4467,11 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4335,15 +4481,15 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4502,8 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4748,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E66" s="3">
         <v>15800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5162,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-113500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-111100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-108500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-103600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-101600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-99200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-97100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-94600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-92100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-86200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-80300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-77200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-74100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-70900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-68700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-66800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5470,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-13200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-8300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-3100</v>
       </c>
       <c r="Q81" s="3">
         <v>-3100</v>
       </c>
       <c r="R81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5640,10 +5839,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -5652,7 +5851,7 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5661,13 +5860,13 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5682,16 +5881,19 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1600</v>
       </c>
       <c r="F89" s="3">
         <v>-1600</v>
       </c>
       <c r="G89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-2400</v>
       </c>
       <c r="O89" s="3">
         <v>-2400</v>
       </c>
       <c r="P89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,28 +6382,29 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -6198,17 +6419,17 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6221,8 +6442,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6396,20 +6626,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6420,32 +6650,32 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>2400</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6455,11 +6685,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>4800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1700</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6867,8 +7116,8 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -6916,92 +7165,98 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5000</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3" t="s">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -1039,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -1269,8 +1269,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1372,8 +1372,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
         <v>1600</v>
@@ -2017,8 +2017,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
         <v>-2600</v>
@@ -2094,8 +2094,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
         <v>-2600</v>
@@ -2556,8 +2556,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
         <v>-2600</v>
@@ -2710,8 +2710,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
         <v>-2600</v>
@@ -5714,8 +5714,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
         <v>-2600</v>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,123 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,61 +804,67 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
       </c>
       <c r="S8" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T8" s="3">
         <v>400</v>
       </c>
       <c r="U8" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W8" s="3">
         <v>500</v>
       </c>
       <c r="X8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -889,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -898,19 +911,19 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -919,16 +932,22 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,61 +970,67 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
-      </c>
-      <c r="U10" s="3">
-        <v>400</v>
-      </c>
-      <c r="V10" s="3">
-        <v>100</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,43 +1072,43 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>600</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
       </c>
       <c r="N12" s="3">
+        <v>600</v>
+      </c>
+      <c r="O12" s="3">
+        <v>900</v>
+      </c>
+      <c r="P12" s="3">
         <v>1200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1300</v>
       </c>
       <c r="Q12" s="3">
         <v>1500</v>
       </c>
       <c r="R12" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="S12" s="3">
         <v>1500</v>
@@ -1090,28 +1117,34 @@
         <v>1200</v>
       </c>
       <c r="U12" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="V12" s="3">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="W12" s="3">
         <v>1300</v>
       </c>
       <c r="X12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1500</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,13 +1220,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1211,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1228,14 +1267,14 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1302,47 +1347,53 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
+      <c r="S15" s="3">
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>100</v>
+      <c r="U15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>3</v>
+      <c r="W15" s="3">
+        <v>100</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3">
         <v>200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>200</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,85 +1418,93 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,76 +1512,82 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-3100</v>
       </c>
       <c r="S18" s="3">
         <v>-3400</v>
       </c>
       <c r="T18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1562,46 +1629,46 @@
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1610,25 +1677,31 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>3300</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1636,76 +1709,82 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,85 +1860,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2500</v>
       </c>
       <c r="J23" s="3">
         <v>-2000</v>
       </c>
       <c r="K23" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="L23" s="3">
-        <v>-2500</v>
+        <v>-2000</v>
       </c>
       <c r="M23" s="3">
         <v>-2400</v>
       </c>
       <c r="N23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1872,35 +1963,35 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1908,11 +1999,11 @@
       <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1920,11 +2011,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1935,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2500</v>
       </c>
       <c r="J26" s="3">
         <v>-2000</v>
       </c>
       <c r="K26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2500</v>
       </c>
       <c r="J27" s="3">
         <v>-2000</v>
       </c>
       <c r="K27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,13 +2358,19 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2267,31 +2388,31 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2486,46 +2625,46 @@
         <v>1000</v>
       </c>
       <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2534,102 +2673,114 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
         <v>-3300</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-2700</v>
       </c>
       <c r="P33" s="3">
         <v>-3200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-2700</v>
       </c>
       <c r="P35" s="3">
         <v>-3200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,74 +3093,76 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>700</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>600</v>
+      </c>
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>11400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>8500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2999,8 +3172,14 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3255,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3103,31 +3288,31 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
@@ -3136,13 +3321,13 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>200</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>3</v>
+      <c r="X43" s="3">
+        <v>100</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>3</v>
@@ -3153,8 +3338,14 @@
       <c r="AA43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,73 +3421,79 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
+      <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
+        <v>200</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
@@ -3307,74 +3504,80 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>9200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>11700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3384,31 +3587,37 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3461,8 +3670,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3491,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3523,11 +3738,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+      <c r="X48" s="3">
+        <v>100</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
@@ -3538,74 +3753,80 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
         <v>800</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
       </c>
       <c r="J49" s="3">
+        <v>900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>900</v>
+      </c>
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3811,17 +4050,17 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3831,11 +4070,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>3</v>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,74 +4168,80 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4251,14 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,49 +4317,51 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -4109,23 +4370,23 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4135,50 +4396,56 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F58" s="3">
         <v>7300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4191,17 +4458,17 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>3</v>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>3</v>
@@ -4212,74 +4479,80 @@
       <c r="AA58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2900</v>
       </c>
       <c r="P59" s="3">
         <v>2600</v>
       </c>
       <c r="Q59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4289,74 +4562,80 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>6600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,56 +4645,62 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F61" s="3">
         <v>8300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4443,19 +4728,25 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4470,32 +4761,32 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,11 +4796,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,74 +5060,80 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F66" s="3">
         <v>17100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4828,8 +5143,14 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,74 +5506,80 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-116200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-113500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-111100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-108500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-105700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-103600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-101600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-99200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-97100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-94600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-92100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-89400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-86200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-80300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-77200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-74100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-70900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-68700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-66800</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5242,8 +5589,14 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,74 +5838,80 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-13200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-11500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-9900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-8300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>9900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>8000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5550,8 +5921,14 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-2700</v>
       </c>
       <c r="P81" s="3">
         <v>-3200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5842,28 +6239,28 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5872,7 +6269,7 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5884,16 +6281,22 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6422,20 +6863,20 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -6445,11 +6886,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
@@ -6460,8 +6901,14 @@
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,13 +7067,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6629,23 +7088,23 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6653,46 +7112,52 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>2400</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,96 +7513,108 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>5000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>4800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>6800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1700</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -7168,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X101" s="3">
         <v>0</v>
@@ -7177,86 +7674,98 @@
         <v>100</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>5000</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>AGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,25 +814,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>400</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
@@ -837,34 +841,37 @@
         <v>400</v>
       </c>
       <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>300</v>
       </c>
       <c r="AB8" s="3">
         <v>300</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -908,25 +915,25 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
@@ -938,16 +945,19 @@
         <v>100</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <v>100</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,61 +986,64 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
       <c r="S10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
       <c r="X10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>300</v>
       </c>
       <c r="AA10" s="3">
         <v>300</v>
       </c>
       <c r="AB10" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,82 +1083,85 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1500</v>
       </c>
-      <c r="AC12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,16 +1243,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1256,28 +1276,28 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1353,11 +1376,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R15" s="3">
-        <v>100</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
@@ -1365,11 +1388,11 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="U15" s="3">
         <v>100</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
@@ -1377,23 +1400,26 @@
       <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Y15" s="3">
         <v>100</v>
       </c>
+      <c r="Z15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="AA15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB15" s="3">
         <v>200</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,91 +1446,95 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1600</v>
       </c>
       <c r="G17" s="3">
         <v>1600</v>
       </c>
       <c r="H17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2200</v>
       </c>
       <c r="L17" s="3">
         <v>2200</v>
       </c>
       <c r="M17" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N17" s="3">
         <v>2500</v>
       </c>
       <c r="O17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2600</v>
       </c>
       <c r="W17" s="3">
         <v>2600</v>
       </c>
       <c r="X17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>3800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3100</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,82 +1542,85 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1600</v>
       </c>
       <c r="G18" s="3">
         <v>-1600</v>
       </c>
       <c r="H18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2400</v>
       </c>
       <c r="O18" s="3">
         <v>-2400</v>
       </c>
       <c r="P18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,38 +1660,38 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-300</v>
       </c>
       <c r="J20" s="3">
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1665,43 +1699,46 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3300</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,82 +1746,85 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-3000</v>
       </c>
       <c r="T21" s="3">
         <v>-3000</v>
       </c>
       <c r="U21" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V21" s="3">
         <v>-3100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,91 +1906,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-3200</v>
       </c>
       <c r="S23" s="3">
         <v>-3200</v>
       </c>
       <c r="T23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1969,11 +2015,11 @@
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1981,14 +2027,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1997,17 +2043,17 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2063,8 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-3200</v>
       </c>
       <c r="T26" s="3">
         <v>-3200</v>
       </c>
       <c r="U26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-3100</v>
       </c>
       <c r="T27" s="3">
         <v>-3100</v>
       </c>
       <c r="U27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-3200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,16 +2422,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2394,28 +2455,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,38 +2692,38 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2661,126 +2731,132 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-3100</v>
       </c>
       <c r="T33" s="3">
         <v>-3100</v>
       </c>
       <c r="U33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-3100</v>
       </c>
       <c r="T35" s="3">
         <v>-3100</v>
       </c>
       <c r="U35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3104,68 +3191,68 @@
         <v>300</v>
       </c>
       <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8500</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3294,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>400</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
@@ -3318,19 +3411,19 @@
         <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>200</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
-      </c>
-      <c r="W43" s="3">
-        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>3</v>
+      <c r="Y43" s="3">
+        <v>100</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>3</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,67 +3523,70 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>700</v>
       </c>
       <c r="S45" s="3">
         <v>700</v>
       </c>
       <c r="T45" s="3">
+        <v>700</v>
+      </c>
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1000</v>
-      </c>
-      <c r="V45" s="3">
-        <v>200</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
@@ -3495,8 +3594,8 @@
       <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
+      <c r="Y45" s="3">
+        <v>200</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
@@ -3510,77 +3609,80 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
-      </c>
-      <c r="O46" s="3">
-        <v>2100</v>
       </c>
       <c r="P46" s="3">
         <v>2100</v>
       </c>
       <c r="Q46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R46" s="3">
         <v>4100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8700</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3593,17 +3695,20 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E47" s="3">
         <v>10000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3724,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3712,25 +3820,25 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1000</v>
       </c>
       <c r="S48" s="3">
         <v>1000</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3744,8 +3852,8 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
+      <c r="Y48" s="3">
+        <v>100</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3771,7 +3882,7 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
@@ -3780,7 +3891,7 @@
         <v>800</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
@@ -3789,47 +3900,47 @@
         <v>900</v>
       </c>
       <c r="L49" s="3">
+        <v>900</v>
+      </c>
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1800</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4056,13 +4176,13 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -4076,8 +4196,8 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>3</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,77 +4297,80 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E54" s="3">
         <v>12500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10600</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,76 +4449,77 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>900</v>
       </c>
       <c r="O57" s="3">
         <v>900</v>
       </c>
       <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
+      <c r="Y57" s="3">
+        <v>100</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
@@ -4402,53 +4533,56 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E58" s="3">
         <v>20000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2300</v>
       </c>
       <c r="O58" s="3">
         <v>2300</v>
       </c>
       <c r="P58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4464,14 +4598,14 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>3</v>
+      <c r="Y58" s="3">
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>3</v>
@@ -4485,77 +4619,80 @@
       <c r="AC58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4568,77 +4705,80 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E60" s="3">
         <v>22500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4651,59 +4791,62 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E61" s="3">
         <v>10000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4767,11 +4913,11 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4781,15 +4927,15 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4802,8 +4948,8 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,77 +5221,80 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E66" s="3">
         <v>32400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2600</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,77 +5683,80 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-119500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-113500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-111100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-108500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-103600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-101600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-99200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-97100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-94600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-92100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-86200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-83500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-80300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-77200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-74100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-70900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-68700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-66800</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,77 +6027,80 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-19900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-17200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-15100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-13200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-11500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>8000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-3100</v>
       </c>
       <c r="T81" s="3">
         <v>-3100</v>
       </c>
       <c r="U81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6245,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -6257,7 +6456,7 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -6266,13 +6465,13 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -6287,16 +6486,19 @@
         <v>100</v>
       </c>
       <c r="AA83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1600</v>
       </c>
       <c r="I89" s="3">
         <v>-1600</v>
       </c>
       <c r="J89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-2400</v>
       </c>
       <c r="R89" s="3">
         <v>-2400</v>
       </c>
       <c r="S89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6869,17 +7090,17 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6892,8 +7113,8 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,17 +7300,20 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -7094,20 +7324,20 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7118,32 +7348,32 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>2400</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -7153,11 +7383,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>11500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>4500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>4800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>6800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1700</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7671,101 +7920,107 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5000</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
